--- a/results/pvalue_OFFSIDES_all_DGI_AUPR+AUROC.xlsx
+++ b/results/pvalue_OFFSIDES_all_DGI_AUPR+AUROC.xlsx
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.018</t>
+          <t>0.014</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>11.153</t>
+          <t>17.449</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11.118</t>
+          <t>17.436</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11.567</t>
+          <t>16.446</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.881</t>
+          <t>4.217</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.61</t>
+          <t>8.267</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
